--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2011834.660403787</v>
+        <v>2116014.294854857</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>370.064896548357</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>219.3035610833823</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>146.8428862394535</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>225.854563564402</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>166.9920602376564</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814351</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>153.2230134806003</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>88.28718441272284</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>380.6114382412677</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1190,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>15.03347606442111</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>225.3482025329758</v>
+        <v>95.44336989065454</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.70843787977175</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>68.62151774815476</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>16.93966244919596</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>127.0078463455647</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>130.5513683573768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.6562577500929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>107.1685137621105</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>180.438871079516</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805175721</v>
+        <v>146.237891632729</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>20.38427178197995</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>220.6346102953139</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>220.6346102953135</v>
+        <v>252.0847494365262</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>166.1438437522577</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3104.087073040097</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.318417769983</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4395,22 +4397,22 @@
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
         <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
         <v>1525.704024291643</v>
@@ -4419,28 +4421,28 @@
         <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
         <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
@@ -4449,10 +4451,10 @@
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.1280466398576</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>382.1280466398576</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>602.9206257833877</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>602.9206257833877</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>602.9206257833877</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.1280466398576</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3046.63630441136</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3046.63630441136</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2715.573417067789</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.2025176122977</v>
+        <v>449.8213709509843</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>449.8213709509843</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>449.8213709509843</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>301.9082773685911</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>301.9082773685911</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>301.9082773685911</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>155.6910905864489</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4759,16 +4761,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122977</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>666.2025176122977</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X7" t="n">
-        <v>666.2025176122977</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.2025176122977</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1289.739170804069</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>903.950918205825</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>492.9650134162175</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2740.621599436322</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.155841175242</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4987,25 +4989,25 @@
         <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452385</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U10" t="n">
-        <v>609.2899331452385</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V10" t="n">
-        <v>609.2899331452385</v>
+        <v>162.9195607661779</v>
       </c>
       <c r="W10" t="n">
-        <v>381.6654861422326</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>381.6654861422326</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.6654861422326</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>840.841793202178</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756784</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996071</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.972636491139</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998277</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998277</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>412.4141300772538</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>245.2180307921338</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5264,46 +5266,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5315,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5343,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453423</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797183</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192468</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5579,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913852</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.6680198981028</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C19" t="n">
-        <v>467.7318369701959</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2251.626625948255</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2251.626625948255</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1962.551399292452</v>
       </c>
       <c r="V19" t="n">
-        <v>1556.515784806851</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="W19" t="n">
-        <v>1267.09861476989</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X19" t="n">
-        <v>1039.109063871873</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y19" t="n">
-        <v>818.3164847283425</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="20">
@@ -5741,46 +5743,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1056.376371837086</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>887.4401889091791</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>737.3235494968434</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>589.4104559144503</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>442.5205084165399</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1238.024836667326</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168588</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.388077746847</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429802</v>
@@ -6139,58 +6141,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.655893893758</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1978.054428916699</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.979202260897</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V25" t="n">
-        <v>1434.29471405501</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075805</v>
@@ -6233,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069454</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558404</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630497</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630497</v>
+        <v>2862.291518351956</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630497</v>
+        <v>2714.378424769563</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630497</v>
+        <v>2567.488477271652</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376197</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218395</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866308</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296632</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822171</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998111</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729146</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
         <v>4690.833152398593</v>
@@ -6409,25 +6411,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388644</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218162</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E31" t="n">
-        <v>2438.670847218162</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F31" t="n">
-        <v>2438.670847218162</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2823.935653491667</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>2654.99947056376</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>2504.882831151424</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>2504.882831151424</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2426.372910063109</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U34" t="n">
-        <v>3998.467906606302</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V34" t="n">
-        <v>3743.783418400415</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W34" t="n">
-        <v>3454.366248363454</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X34" t="n">
-        <v>3226.376697465437</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y34" t="n">
-        <v>3005.584118321907</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7259,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7828,13 +7830,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1882.204779583153</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>126.7126101431595</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>71.67319509806913</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.63391537253445</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>148.5844758430729</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>54.01843965607991</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.86788054217591</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>179.3544845744806</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5874149221286302</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>40.64330621514753</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405117</v>
+        <v>19.28624665953984</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409392964</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>26.93934589766888</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>45.99097492814173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>65.54986409393024</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>65.54986409393067</v>
+        <v>34.09972495271793</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516053</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752545</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189207</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.147241433</v>
+        <v>-935020.1472414332</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861598</v>
+        <v>393724.5984861595</v>
       </c>
       <c r="D6" t="n">
         <v>393724.5984861598</v>
       </c>
       <c r="E6" t="n">
-        <v>142599.7091721002</v>
+        <v>142599.7091720999</v>
       </c>
       <c r="F6" t="n">
-        <v>468012.1709794551</v>
+        <v>468012.1709794552</v>
       </c>
       <c r="G6" t="n">
-        <v>468012.1709794554</v>
+        <v>468012.1709794553</v>
       </c>
       <c r="H6" t="n">
-        <v>468012.1709794551</v>
+        <v>468012.1709794553</v>
       </c>
       <c r="I6" t="n">
         <v>468012.1709794552</v>
       </c>
       <c r="J6" t="n">
-        <v>250480.9685821776</v>
+        <v>250480.968582178</v>
       </c>
       <c r="K6" t="n">
         <v>468012.1709794552</v>
       </c>
       <c r="L6" t="n">
-        <v>468012.1709794556</v>
+        <v>468012.1709794554</v>
       </c>
       <c r="M6" t="n">
-        <v>382957.1430439434</v>
+        <v>382957.1430439436</v>
       </c>
       <c r="N6" t="n">
-        <v>468012.170979455</v>
+        <v>468012.1709794551</v>
       </c>
       <c r="O6" t="n">
-        <v>468012.1709794555</v>
+        <v>468012.1709794553</v>
       </c>
       <c r="P6" t="n">
-        <v>468012.1709794555</v>
+        <v>468012.1709794554</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>108.4486973867526</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.359690138258429e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758807</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>26.28307975942604</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>36.92590990196373</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803255</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.02380761802749</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>8.06523599711528</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>30.31028741218574</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>334.2074926529919</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>61.17479580361515</v>
+        <v>191.0796284459365</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138795</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31847,28 +31849,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270676</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950821</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,28 +33034,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>248.3870916262923</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33269,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,7 +33979,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340053</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410461</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>37.76383318075186</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>108.4053175402708</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899028</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116014.294854857</v>
+        <v>2112001.684840864</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.064896548357</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8428862394535</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>29.67818511680685</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>166.9920602376564</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>108.5063800517388</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>94.57983363107971</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>88.28718441272284</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>380.6114382412677</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506832</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>12.89672315228546</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>95.44336989065454</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>62.36981422367106</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>68.62151774815476</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>16.93966244919596</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>53.07327741456153</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>127.0078463455647</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="21">
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>107.1685137621105</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>176.7621441121407</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>146.237891632729</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>135.5795121770518</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>54.32649042089665</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.38427178197995</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>252.0847494365262</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>2883.149393528016</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181845</v>
+        <v>2883.149393528016</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>2883.149393528016</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>2883.149393528016</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>2736.259446030106</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>2568.556609404825</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>2568.556609404825</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>3103.941972671546</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>2883.149393528016</v>
       </c>
     </row>
     <row r="5">
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,19 +4597,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3046.63630441136</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3046.63630441136</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2715.573417067789</v>
+        <v>3105.712749043601</v>
       </c>
       <c r="W5" t="n">
-        <v>2362.804761797675</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y5" t="n">
         <v>2362.804761797675</v>
@@ -4640,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>449.8213709509843</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>449.8213709509843</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>449.8213709509843</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>301.9082773685911</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>301.9082773685911</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>301.9082773685911</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>155.6910905864489</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>631.469835781224</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.469835781224</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.00486941082</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1648.00486941082</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1289.739170804069</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>903.950918205825</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>492.9650134162175</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="U10" t="n">
-        <v>417.6040489720648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="V10" t="n">
-        <v>162.9195607661779</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218342</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>626.3436713194226</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,52 +5038,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3568999154069</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>709.4207169875</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="D13" t="n">
-        <v>559.3040775751642</v>
+        <v>613.6374994204294</v>
       </c>
       <c r="E13" t="n">
-        <v>559.3040775751642</v>
+        <v>465.7244058380363</v>
       </c>
       <c r="F13" t="n">
-        <v>412.4141300772538</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>245.2180307921338</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,16 +5369,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311989</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032921</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>482.6390612909563</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>334.7259677085632</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>334.7259677085632</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5478,10 +5478,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614387</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2251.626625948255</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2251.626625948255</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1962.551399292452</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1707.866911086565</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1418.449741049605</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1190.460190151587</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>969.6676110080573</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3012.408157764291</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3012.408157764291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2862.291518351956</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2714.378424769563</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2567.488477271652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>443.4949469776659</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>295.5818533952728</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F31" t="n">
-        <v>148.6919058973624</v>
+        <v>230.7656652470141</v>
       </c>
       <c r="G31" t="n">
-        <v>148.6919058973624</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>148.6919058973624</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6691,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.372910063109</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.518075718013</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T34" t="n">
-        <v>2023.916610740955</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6928,34 +6928,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2125.286319795768</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1870.601831589881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>83.05123379926019</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>71.67319509806913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>148.5844758430729</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>165.5113759375333</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
-        <v>54.01843965607991</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>40.64330621514753</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28624665953984</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>29.94462611521703</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>26.93934589766888</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.99097492814173</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>34.09972495271793</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>39.70888054695305</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842573.8638075644</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842573.8638075644</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26435,7 +26435,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414332</v>
+        <v>-935020.1472414333</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861595</v>
+        <v>393724.5984861597</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861598</v>
+        <v>393724.5984861597</v>
       </c>
       <c r="E6" t="n">
-        <v>142599.7091720999</v>
+        <v>142252.329917743</v>
       </c>
       <c r="F6" t="n">
-        <v>468012.1709794552</v>
+        <v>467664.7917250977</v>
       </c>
       <c r="G6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250983</v>
       </c>
       <c r="H6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250983</v>
       </c>
       <c r="I6" t="n">
-        <v>468012.1709794552</v>
+        <v>467664.7917250983</v>
       </c>
       <c r="J6" t="n">
-        <v>250480.968582178</v>
+        <v>250133.5893278206</v>
       </c>
       <c r="K6" t="n">
-        <v>468012.1709794552</v>
+        <v>467664.7917250982</v>
       </c>
       <c r="L6" t="n">
-        <v>468012.1709794554</v>
+        <v>467664.7917250982</v>
       </c>
       <c r="M6" t="n">
-        <v>382957.1430439436</v>
+        <v>382609.7637895864</v>
       </c>
       <c r="N6" t="n">
-        <v>468012.1709794551</v>
+        <v>467664.7917250981</v>
       </c>
       <c r="O6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250981</v>
       </c>
       <c r="P6" t="n">
-        <v>468012.1709794554</v>
+        <v>467664.7917250981</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512362</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778758807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>196.0314702722303</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>36.92590990196373</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>219.2458784183961</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754813</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.06523599711528</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>30.31028741218574</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194517</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>206.6522261238837</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>191.0796284459365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
     </row>
     <row r="21">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,16 +32785,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2112001.684840864</v>
+        <v>2113762.215143652</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>61.87208633602666</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>112.6481021990955</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>29.67818511680685</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>75.36188596892143</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>108.5063800517388</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>94.57983363107971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>201.6622187863182</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506832</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12.89672315228546</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701338</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.36981422367106</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.73384166348</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.07327741456153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.6579322793575</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>141.2342243404105</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>135.5795121770518</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8253826161911274</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>100.5858322992708</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2365.667596818511</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2883.149393528016</v>
+        <v>478.3278112441805</v>
       </c>
       <c r="C4" t="n">
-        <v>2883.149393528016</v>
+        <v>478.3278112441805</v>
       </c>
       <c r="D4" t="n">
-        <v>2883.149393528016</v>
+        <v>328.2111718318447</v>
       </c>
       <c r="E4" t="n">
-        <v>2883.149393528016</v>
+        <v>180.2980782494516</v>
       </c>
       <c r="F4" t="n">
-        <v>2736.259446030106</v>
+        <v>180.2980782494516</v>
       </c>
       <c r="G4" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435998</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U4" t="n">
-        <v>3133.919937435998</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V4" t="n">
-        <v>3133.919937435998</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W4" t="n">
-        <v>3133.919937435998</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="X4" t="n">
-        <v>3103.941972671546</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="Y4" t="n">
-        <v>2883.149393528016</v>
+        <v>478.3278112441805</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1754.744438482645</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1754.744438482645</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1396.478739875895</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1010.69048727765</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>599.7045824880429</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>184.6321323330394</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>3105.712749043601</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W5" t="n">
-        <v>2752.944093773487</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2141.344278546767</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4834,22 +4834,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.3436713194226</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>626.3436713194226</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>626.3436713194226</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>626.3436713194226</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>626.3436713194226</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>626.3436713194226</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>626.3436713194226</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,19 +5114,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
         <v>1522.21291626627</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>763.7541388327652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>613.6374994204294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>465.7244058380363</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356194</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
         <v>402.7245934908938</v>
@@ -5667,58 +5667,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,37 +6004,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>230.7656652470141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7074,16 +7074,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,34 +7095,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
         <v>2035.268256189238</v>
@@ -7162,25 +7162,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>277.5052172074025</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>83.05123379926019</v>
+        <v>37.12601365260463</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.5113759375333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>30.9575407388549</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>29.94462611521703</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.54986409393054</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>39.70888054695305</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842573.8638075644</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842573.8638075644</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842573.8638075644</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752539</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414333</v>
+        <v>-935020.1472414326</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861597</v>
+        <v>393724.5984861592</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861597</v>
+        <v>393724.5984861598</v>
       </c>
       <c r="E6" t="n">
-        <v>142252.329917743</v>
+        <v>142564.9712466644</v>
       </c>
       <c r="F6" t="n">
-        <v>467664.7917250977</v>
+        <v>467977.4330540197</v>
       </c>
       <c r="G6" t="n">
-        <v>467664.7917250983</v>
+        <v>467977.4330540198</v>
       </c>
       <c r="H6" t="n">
-        <v>467664.7917250983</v>
+        <v>467977.4330540197</v>
       </c>
       <c r="I6" t="n">
-        <v>467664.7917250983</v>
+        <v>467977.4330540199</v>
       </c>
       <c r="J6" t="n">
-        <v>250133.5893278206</v>
+        <v>250446.2306567425</v>
       </c>
       <c r="K6" t="n">
-        <v>467664.7917250982</v>
+        <v>467977.4330540197</v>
       </c>
       <c r="L6" t="n">
-        <v>467664.7917250982</v>
+        <v>467977.4330540196</v>
       </c>
       <c r="M6" t="n">
-        <v>382609.7637895864</v>
+        <v>382922.4051185077</v>
       </c>
       <c r="N6" t="n">
-        <v>467664.7917250981</v>
+        <v>467977.4330540196</v>
       </c>
       <c r="O6" t="n">
-        <v>467664.7917250981</v>
+        <v>467977.4330540195</v>
       </c>
       <c r="P6" t="n">
-        <v>467664.7917250981</v>
+        <v>467977.4330540196</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>320.8617553274539</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.37770605993272</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>196.0314702722303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>219.245878418399</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>219.2458784183961</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>72.66698746754813</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>2.255751353302003</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194517</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.88174980530036</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>206.6522261238837</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>549.9198891312099</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>407.3236446867654</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
